--- a/Code/Results/Cases/Case_6_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_23/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.052073580522452</v>
+        <v>1.071655090883022</v>
       </c>
       <c r="D2">
-        <v>1.067016891271676</v>
+        <v>1.085182095717908</v>
       </c>
       <c r="E2">
-        <v>1.059969152583162</v>
+        <v>1.077312888815841</v>
       </c>
       <c r="F2">
-        <v>1.072641068704214</v>
+        <v>1.090762123496912</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.073957761377305</v>
+        <v>1.088564406310737</v>
       </c>
       <c r="J2">
-        <v>1.072801001605088</v>
+        <v>1.091885179251762</v>
       </c>
       <c r="K2">
-        <v>1.077615333670632</v>
+        <v>1.095569805169629</v>
       </c>
       <c r="L2">
-        <v>1.070651768036625</v>
+        <v>1.087790810216472</v>
       </c>
       <c r="M2">
-        <v>1.083173321921042</v>
+        <v>1.101086835421237</v>
       </c>
       <c r="N2">
-        <v>1.074324502079363</v>
+        <v>1.09343578144728</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.060223662978665</v>
+        <v>1.078523962729806</v>
       </c>
       <c r="D3">
-        <v>1.073608648786426</v>
+        <v>1.0908538391229</v>
       </c>
       <c r="E3">
-        <v>1.067096126768017</v>
+        <v>1.083365694412771</v>
       </c>
       <c r="F3">
-        <v>1.079789296774472</v>
+        <v>1.096911238989118</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.07724595526048</v>
+        <v>1.091756457235168</v>
       </c>
       <c r="J3">
-        <v>1.079197132925255</v>
+        <v>1.097081031958218</v>
       </c>
       <c r="K3">
-        <v>1.083378971218258</v>
+        <v>1.100442645181477</v>
       </c>
       <c r="L3">
-        <v>1.076936869764201</v>
+        <v>1.093032450218234</v>
       </c>
       <c r="M3">
-        <v>1.0894937485903</v>
+        <v>1.10643793782589</v>
       </c>
       <c r="N3">
-        <v>1.08072971663965</v>
+        <v>1.098639012860551</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.065332064232108</v>
+        <v>1.082846903756941</v>
       </c>
       <c r="D4">
-        <v>1.077742107981403</v>
+        <v>1.094425177026778</v>
       </c>
       <c r="E4">
-        <v>1.071564235767335</v>
+        <v>1.087175374890905</v>
       </c>
       <c r="F4">
-        <v>1.084273394552964</v>
+        <v>1.100784413471816</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.079293234284785</v>
+        <v>1.09375406953434</v>
       </c>
       <c r="J4">
-        <v>1.083200349915924</v>
+        <v>1.100345104577129</v>
       </c>
       <c r="K4">
-        <v>1.086984763293212</v>
+        <v>1.103503414570878</v>
       </c>
       <c r="L4">
-        <v>1.080869357825261</v>
+        <v>1.096324309592619</v>
       </c>
       <c r="M4">
-        <v>1.093450949868371</v>
+        <v>1.109801565836391</v>
       </c>
       <c r="N4">
-        <v>1.084738618657622</v>
+        <v>1.101907720836976</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.067442413136109</v>
+        <v>1.084636604834695</v>
       </c>
       <c r="D5">
-        <v>1.079450034021401</v>
+        <v>1.095904088811557</v>
       </c>
       <c r="E5">
-        <v>1.073410233434716</v>
+        <v>1.088752615812153</v>
       </c>
       <c r="F5">
-        <v>1.086126622861769</v>
+        <v>1.10238862607635</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.080135645205265</v>
+        <v>1.094578332536685</v>
       </c>
       <c r="J5">
-        <v>1.084852681632779</v>
+        <v>1.101694968550488</v>
       </c>
       <c r="K5">
-        <v>1.088472664561249</v>
+        <v>1.104769100879986</v>
       </c>
       <c r="L5">
-        <v>1.082492192573941</v>
+        <v>1.097685425957514</v>
       </c>
       <c r="M5">
-        <v>1.095084599413981</v>
+        <v>1.111193079985685</v>
       </c>
       <c r="N5">
-        <v>1.086393296875039</v>
+        <v>1.103259501772009</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.067794631340568</v>
+        <v>1.084935521961817</v>
       </c>
       <c r="D6">
-        <v>1.079735104987756</v>
+        <v>1.096151118069676</v>
       </c>
       <c r="E6">
-        <v>1.073718338789147</v>
+        <v>1.08901604807937</v>
       </c>
       <c r="F6">
-        <v>1.086435971398398</v>
+        <v>1.102656603289471</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.080276045611539</v>
+        <v>1.094715838782052</v>
       </c>
       <c r="J6">
-        <v>1.085128369733633</v>
+        <v>1.101920336595407</v>
       </c>
       <c r="K6">
-        <v>1.088720894140399</v>
+        <v>1.104980408743274</v>
       </c>
       <c r="L6">
-        <v>1.082762941132279</v>
+        <v>1.097912658485735</v>
       </c>
       <c r="M6">
-        <v>1.095357188251242</v>
+        <v>1.111425429743449</v>
       </c>
       <c r="N6">
-        <v>1.086669376484618</v>
+        <v>1.103485189865401</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.065360406142227</v>
+        <v>1.082870924668753</v>
       </c>
       <c r="D7">
-        <v>1.077765044144691</v>
+        <v>1.094445025196881</v>
       </c>
       <c r="E7">
-        <v>1.071589026901532</v>
+        <v>1.08719654416084</v>
       </c>
       <c r="F7">
-        <v>1.08429828033645</v>
+        <v>1.100805942046304</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.079304561154224</v>
+        <v>1.093765143508298</v>
       </c>
       <c r="J7">
-        <v>1.083222546484015</v>
+        <v>1.100363227949753</v>
       </c>
       <c r="K7">
-        <v>1.087004752568382</v>
+        <v>1.103520408180121</v>
       </c>
       <c r="L7">
-        <v>1.080891159356842</v>
+        <v>1.096342584991751</v>
       </c>
       <c r="M7">
-        <v>1.093472894260065</v>
+        <v>1.109820246521366</v>
       </c>
       <c r="N7">
-        <v>1.084760846747385</v>
+        <v>1.101925869946868</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.054863630232594</v>
+        <v>1.074002571113805</v>
       </c>
       <c r="D8">
-        <v>1.069273032527913</v>
+        <v>1.087120029852551</v>
       </c>
       <c r="E8">
-        <v>1.062408702389955</v>
+        <v>1.07938137157275</v>
       </c>
       <c r="F8">
-        <v>1.075087321659213</v>
+        <v>1.092862909726602</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.07508629017114</v>
+        <v>1.089657671190163</v>
       </c>
       <c r="J8">
-        <v>1.074991810425169</v>
+        <v>1.093662124945</v>
       </c>
       <c r="K8">
-        <v>1.07958981795983</v>
+        <v>1.097236358174829</v>
       </c>
       <c r="L8">
-        <v>1.07280480439692</v>
+        <v>1.089583618184824</v>
       </c>
       <c r="M8">
-        <v>1.085337900351355</v>
+        <v>1.102916443134985</v>
       </c>
       <c r="N8">
-        <v>1.076518422099257</v>
+        <v>1.095215250607221</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.034983884361327</v>
+        <v>1.057371320748037</v>
       </c>
       <c r="D9">
-        <v>1.053209697621259</v>
+        <v>1.07340081063489</v>
       </c>
       <c r="E9">
-        <v>1.045034088861874</v>
+        <v>1.064730433706977</v>
       </c>
       <c r="F9">
-        <v>1.057677189548925</v>
+        <v>1.077995795471075</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.066988018893912</v>
+        <v>1.081865056485477</v>
       </c>
       <c r="J9">
-        <v>1.059359000410841</v>
+        <v>1.081048997708061</v>
       </c>
       <c r="K9">
-        <v>1.065494689015675</v>
+        <v>1.085405560279058</v>
       </c>
       <c r="L9">
-        <v>1.05743645698432</v>
+        <v>1.076853881622637</v>
       </c>
       <c r="M9">
-        <v>1.069899010149487</v>
+        <v>1.089938612083044</v>
       </c>
       <c r="N9">
-        <v>1.0608634117016</v>
+        <v>1.082584211282859</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.020613419442952</v>
+        <v>1.045496720819615</v>
       </c>
       <c r="D10">
-        <v>1.041619253375575</v>
+        <v>1.063622170398884</v>
       </c>
       <c r="E10">
-        <v>1.032488958437386</v>
+        <v>1.054277302333699</v>
       </c>
       <c r="F10">
-        <v>1.045122946572684</v>
+        <v>1.067404893074043</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.061063410188255</v>
+        <v>1.076242738313097</v>
       </c>
       <c r="J10">
-        <v>1.048032402635246</v>
+        <v>1.072014676078647</v>
       </c>
       <c r="K10">
-        <v>1.055275631076484</v>
+        <v>1.076930457912599</v>
       </c>
       <c r="L10">
-        <v>1.046295387214897</v>
+        <v>1.067731155584426</v>
       </c>
       <c r="M10">
-        <v>1.058722636340161</v>
+        <v>1.080655181038342</v>
       </c>
       <c r="N10">
-        <v>1.049520728857985</v>
+        <v>1.073537059880481</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.014075742818014</v>
+        <v>1.040139399634433</v>
       </c>
       <c r="D11">
-        <v>1.036353422439343</v>
+        <v>1.059215639230477</v>
       </c>
       <c r="E11">
-        <v>1.026786805005648</v>
+        <v>1.049564090409758</v>
       </c>
       <c r="F11">
-        <v>1.039420885008397</v>
+        <v>1.062633586041517</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.058352346428586</v>
+        <v>1.073692948893672</v>
       </c>
       <c r="J11">
-        <v>1.042874455810106</v>
+        <v>1.067932681274341</v>
       </c>
       <c r="K11">
-        <v>1.050620855091217</v>
+        <v>1.073101034754337</v>
       </c>
       <c r="L11">
-        <v>1.041220644398572</v>
+        <v>1.063608152850168</v>
       </c>
       <c r="M11">
-        <v>1.053635798304536</v>
+        <v>1.076463678972688</v>
       </c>
       <c r="N11">
-        <v>1.044355457156729</v>
+        <v>1.069449268175341</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.011594973840656</v>
+        <v>1.038114275754787</v>
       </c>
       <c r="D12">
-        <v>1.034356533498167</v>
+        <v>1.057550815275765</v>
       </c>
       <c r="E12">
-        <v>1.02462401447843</v>
+        <v>1.047782964244462</v>
       </c>
       <c r="F12">
-        <v>1.037258794331601</v>
+        <v>1.060831120803507</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.057321353100335</v>
+        <v>1.072727174087763</v>
       </c>
       <c r="J12">
-        <v>1.040916592941107</v>
+        <v>1.066388797321828</v>
       </c>
       <c r="K12">
-        <v>1.048853845058747</v>
+        <v>1.071652678376052</v>
       </c>
       <c r="L12">
-        <v>1.039294188634722</v>
+        <v>1.062048608591198</v>
       </c>
       <c r="M12">
-        <v>1.051705370813996</v>
+        <v>1.074878851914381</v>
       </c>
       <c r="N12">
-        <v>1.042394813897886</v>
+        <v>1.06790319173053</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.012129566793272</v>
+        <v>1.038550311939543</v>
       </c>
       <c r="D13">
-        <v>1.034786792051509</v>
+        <v>1.057909231921329</v>
       </c>
       <c r="E13">
-        <v>1.025090039720782</v>
+        <v>1.048166439443855</v>
       </c>
       <c r="F13">
-        <v>1.037724638277176</v>
+        <v>1.061219162346882</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.057543627041456</v>
+        <v>1.072935204254296</v>
       </c>
       <c r="J13">
-        <v>1.041338529285262</v>
+        <v>1.066721253198983</v>
       </c>
       <c r="K13">
-        <v>1.04923465673421</v>
+        <v>1.071964563313542</v>
       </c>
       <c r="L13">
-        <v>1.039709364093912</v>
+        <v>1.062384443338148</v>
       </c>
       <c r="M13">
-        <v>1.052121373911733</v>
+        <v>1.075220102668444</v>
       </c>
       <c r="N13">
-        <v>1.042817349440046</v>
+        <v>1.068236119733164</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.01387178210413</v>
+        <v>1.039972737164818</v>
       </c>
       <c r="D14">
-        <v>1.036189217806202</v>
+        <v>1.059078609746635</v>
       </c>
       <c r="E14">
-        <v>1.026608967504886</v>
+        <v>1.049417497230623</v>
       </c>
       <c r="F14">
-        <v>1.039243091401879</v>
+        <v>1.062485224036499</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.058267626687358</v>
+        <v>1.073613506850357</v>
       </c>
       <c r="J14">
-        <v>1.0427134990256</v>
+        <v>1.067805640375129</v>
       </c>
       <c r="K14">
-        <v>1.050475591050879</v>
+        <v>1.072981854387013</v>
       </c>
       <c r="L14">
-        <v>1.041062273055662</v>
+        <v>1.063479826308938</v>
       </c>
       <c r="M14">
-        <v>1.053477087767374</v>
+        <v>1.076333259280026</v>
       </c>
       <c r="N14">
-        <v>1.044194271795126</v>
+        <v>1.06932204686348</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.01493811365332</v>
+        <v>1.040844389996515</v>
       </c>
       <c r="D15">
-        <v>1.037047752478735</v>
+        <v>1.059795317559952</v>
       </c>
       <c r="E15">
-        <v>1.027538762623861</v>
+        <v>1.05018420834359</v>
       </c>
       <c r="F15">
-        <v>1.040172684208478</v>
+        <v>1.063261211535367</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.058710460728659</v>
+        <v>1.074028914604142</v>
       </c>
       <c r="J15">
-        <v>1.043554975417288</v>
+        <v>1.06847003644782</v>
       </c>
       <c r="K15">
-        <v>1.051235020804838</v>
+        <v>1.073605141713841</v>
       </c>
       <c r="L15">
-        <v>1.041890225829666</v>
+        <v>1.064150939954391</v>
       </c>
       <c r="M15">
-        <v>1.05430683911093</v>
+        <v>1.077015345096139</v>
       </c>
       <c r="N15">
-        <v>1.045036943179809</v>
+        <v>1.069987386454802</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.02104025015422</v>
+        <v>1.045847496195185</v>
       </c>
       <c r="D16">
-        <v>1.041963211084123</v>
+        <v>1.063910808553123</v>
       </c>
       <c r="E16">
-        <v>1.032861358509253</v>
+        <v>1.054585970044642</v>
       </c>
       <c r="F16">
-        <v>1.045495430457023</v>
+        <v>1.067717449706052</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.061240093175143</v>
+        <v>1.076409418781738</v>
       </c>
       <c r="J16">
-        <v>1.048369058974276</v>
+        <v>1.072281827714476</v>
       </c>
       <c r="K16">
-        <v>1.055579424230243</v>
+        <v>1.077181078842706</v>
       </c>
       <c r="L16">
-        <v>1.046626587766021</v>
+        <v>1.068000969771431</v>
       </c>
       <c r="M16">
-        <v>1.059054710255427</v>
+        <v>1.080929564003422</v>
       </c>
       <c r="N16">
-        <v>1.049857863287632</v>
+        <v>1.073804590902275</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.024780249756697</v>
+        <v>1.048926232591826</v>
       </c>
       <c r="D17">
-        <v>1.04497787741315</v>
+        <v>1.066444768012684</v>
       </c>
       <c r="E17">
-        <v>1.0361250151899</v>
+        <v>1.057295457089005</v>
       </c>
       <c r="F17">
-        <v>1.048760301412672</v>
+        <v>1.070461529939973</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.062786475658448</v>
+        <v>1.077870874997906</v>
       </c>
       <c r="J17">
-        <v>1.051318372592609</v>
+        <v>1.074625922453438</v>
       </c>
       <c r="K17">
-        <v>1.058240707137761</v>
+        <v>1.079380116888239</v>
       </c>
       <c r="L17">
-        <v>1.049527962878565</v>
+        <v>1.070368307622168</v>
       </c>
       <c r="M17">
-        <v>1.061964186673399</v>
+        <v>1.08333745538573</v>
       </c>
       <c r="N17">
-        <v>1.052811365269593</v>
+        <v>1.076152014524638</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.026931695335729</v>
+        <v>1.050701415811326</v>
       </c>
       <c r="D18">
-        <v>1.046712724372178</v>
+        <v>1.067906315544686</v>
       </c>
       <c r="E18">
-        <v>1.038002909784349</v>
+        <v>1.05885799009323</v>
       </c>
       <c r="F18">
-        <v>1.050639289406317</v>
+        <v>1.072044390733675</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.06367455613733</v>
+        <v>1.078712292847943</v>
       </c>
       <c r="J18">
-        <v>1.053014493408557</v>
+        <v>1.075976937342807</v>
       </c>
       <c r="K18">
-        <v>1.059771070955054</v>
+        <v>1.080647517982301</v>
       </c>
       <c r="L18">
-        <v>1.051196393469128</v>
+        <v>1.071732617887726</v>
       </c>
       <c r="M18">
-        <v>1.063637647460023</v>
+        <v>1.084725524896353</v>
       </c>
       <c r="N18">
-        <v>1.054509894771648</v>
+        <v>1.077504948010113</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.027660329710358</v>
+        <v>1.051303294390846</v>
       </c>
       <c r="D19">
-        <v>1.047300373436798</v>
+        <v>1.068401933688905</v>
       </c>
       <c r="E19">
-        <v>1.038638974731425</v>
+        <v>1.059387810189512</v>
       </c>
       <c r="F19">
-        <v>1.051275790849314</v>
+        <v>1.072581167394363</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.063975070156211</v>
+        <v>1.078997363087361</v>
       </c>
       <c r="J19">
-        <v>1.053588837401186</v>
+        <v>1.076434901091891</v>
       </c>
       <c r="K19">
-        <v>1.060289265722338</v>
+        <v>1.081077136285593</v>
       </c>
       <c r="L19">
-        <v>1.051761339912847</v>
+        <v>1.072195071121116</v>
       </c>
       <c r="M19">
-        <v>1.064204359616554</v>
+        <v>1.085196097306037</v>
       </c>
       <c r="N19">
-        <v>1.055085054398624</v>
+        <v>1.07796356212025</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.02438212367717</v>
+        <v>1.04859806236648</v>
       </c>
       <c r="D20">
-        <v>1.04465689458625</v>
+        <v>1.066174616309278</v>
       </c>
       <c r="E20">
-        <v>1.035777546588246</v>
+        <v>1.057006618721985</v>
       </c>
       <c r="F20">
-        <v>1.048412662296427</v>
+        <v>1.070168964480664</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.06262201522028</v>
+        <v>1.077715224186582</v>
       </c>
       <c r="J20">
-        <v>1.051004464884409</v>
+        <v>1.074376119096417</v>
       </c>
       <c r="K20">
-        <v>1.057957467287218</v>
+        <v>1.079145772798481</v>
       </c>
       <c r="L20">
-        <v>1.049219169965754</v>
+        <v>1.070116037720557</v>
       </c>
       <c r="M20">
-        <v>1.061654492756033</v>
+        <v>1.083080823623968</v>
       </c>
       <c r="N20">
-        <v>1.052497011776441</v>
+        <v>1.075901856418197</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.01336023339426</v>
+        <v>1.039554863502126</v>
       </c>
       <c r="D21">
-        <v>1.035777401435962</v>
+        <v>1.058735049759835</v>
       </c>
       <c r="E21">
-        <v>1.026162953361792</v>
+        <v>1.049049952074825</v>
       </c>
       <c r="F21">
-        <v>1.038797198135471</v>
+        <v>1.062113253930703</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.05805510729703</v>
+        <v>1.073414290622652</v>
       </c>
       <c r="J21">
-        <v>1.042309797480052</v>
+        <v>1.067487096699278</v>
       </c>
       <c r="K21">
-        <v>1.050111246900187</v>
+        <v>1.072683020353368</v>
       </c>
       <c r="L21">
-        <v>1.040665053391287</v>
+        <v>1.063158056617151</v>
       </c>
       <c r="M21">
-        <v>1.05307902738544</v>
+        <v>1.076006251273191</v>
       </c>
       <c r="N21">
-        <v>1.043789996947078</v>
+        <v>1.069003050819072</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.006124177128769</v>
+        <v>1.033663893851827</v>
       </c>
       <c r="D22">
-        <v>1.029955419110895</v>
+        <v>1.053894001113939</v>
       </c>
       <c r="E22">
-        <v>1.019856377934861</v>
+        <v>1.043869858458611</v>
       </c>
       <c r="F22">
-        <v>1.032493963277286</v>
+        <v>1.056872279573104</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.05504367262254</v>
+        <v>1.070601320819517</v>
       </c>
       <c r="J22">
-        <v>1.036597907481199</v>
+        <v>1.062994500895143</v>
       </c>
       <c r="K22">
-        <v>1.044955928209315</v>
+        <v>1.068468422852342</v>
       </c>
       <c r="L22">
-        <v>1.035044478739756</v>
+        <v>1.058619616707878</v>
       </c>
       <c r="M22">
-        <v>1.047448069530092</v>
+        <v>1.071395435320237</v>
       </c>
       <c r="N22">
-        <v>1.038069995409264</v>
+        <v>1.064504075013588</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.009991053815199</v>
+        <v>1.03680727556586</v>
       </c>
       <c r="D23">
-        <v>1.033065847184307</v>
+        <v>1.056476616344626</v>
       </c>
       <c r="E23">
-        <v>1.023225966524351</v>
+        <v>1.046633597283773</v>
       </c>
       <c r="F23">
-        <v>1.03586139013527</v>
+        <v>1.059668158421613</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.056654149894309</v>
+        <v>1.072103334880809</v>
       </c>
       <c r="J23">
-        <v>1.03965058807801</v>
+        <v>1.065392156238012</v>
       </c>
       <c r="K23">
-        <v>1.047711215551651</v>
+        <v>1.070717706500424</v>
       </c>
       <c r="L23">
-        <v>1.038048445304557</v>
+        <v>1.061041817047307</v>
       </c>
       <c r="M23">
-        <v>1.050457236732647</v>
+        <v>1.073855916351326</v>
       </c>
       <c r="N23">
-        <v>1.04112701116267</v>
+        <v>1.066905135302058</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.024562112153876</v>
+        <v>1.048746411792642</v>
       </c>
       <c r="D24">
-        <v>1.044802005425989</v>
+        <v>1.066296736967528</v>
       </c>
       <c r="E24">
-        <v>1.03593463193084</v>
+        <v>1.057137187381509</v>
       </c>
       <c r="F24">
-        <v>1.048569823501483</v>
+        <v>1.070301216789175</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.062696370607634</v>
+        <v>1.077785590058281</v>
       </c>
       <c r="J24">
-        <v>1.051146380651562</v>
+        <v>1.074489044560931</v>
       </c>
       <c r="K24">
-        <v>1.058085518657513</v>
+        <v>1.079251709820468</v>
       </c>
       <c r="L24">
-        <v>1.04935877374319</v>
+        <v>1.070230078518496</v>
       </c>
       <c r="M24">
-        <v>1.061794502719721</v>
+        <v>1.083196835033982</v>
       </c>
       <c r="N24">
-        <v>1.052639129080262</v>
+        <v>1.076014942249824</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.04030503658344</v>
+        <v>1.061800722530746</v>
       </c>
       <c r="D25">
-        <v>1.057506322674631</v>
+        <v>1.077052146938171</v>
       </c>
       <c r="E25">
-        <v>1.049682737354044</v>
+        <v>1.0686314359079</v>
       </c>
       <c r="F25">
-        <v>1.06233262837201</v>
+        <v>1.081951582815248</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.069167934002485</v>
+        <v>1.08395062649848</v>
       </c>
       <c r="J25">
-        <v>1.06354815224398</v>
+        <v>1.084413350308136</v>
       </c>
       <c r="K25">
-        <v>1.069273009849921</v>
+        <v>1.088561483079889</v>
       </c>
       <c r="L25">
-        <v>1.061555816706148</v>
+        <v>1.080250197025441</v>
       </c>
       <c r="M25">
-        <v>1.074034664442613</v>
+        <v>1.093398231180636</v>
       </c>
       <c r="N25">
-        <v>1.065058512610844</v>
+        <v>1.085953341649523</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_23/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,81 +433,93 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.071655090883022</v>
+        <v>1.037024718941004</v>
       </c>
       <c r="D2">
-        <v>1.085182095717908</v>
+        <v>1.052705018160734</v>
       </c>
       <c r="E2">
-        <v>1.077312888815841</v>
+        <v>1.048498580354994</v>
       </c>
       <c r="F2">
-        <v>1.090762123496912</v>
+        <v>1.059656143130127</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.088564406310737</v>
+        <v>1.06716690905948</v>
       </c>
       <c r="J2">
-        <v>1.091885179251762</v>
+        <v>1.058151736246997</v>
       </c>
       <c r="K2">
-        <v>1.095569805169629</v>
+        <v>1.063475857560016</v>
       </c>
       <c r="L2">
-        <v>1.087790810216472</v>
+        <v>1.059321203234395</v>
       </c>
       <c r="M2">
-        <v>1.101086835421237</v>
+        <v>1.070342529170986</v>
       </c>
       <c r="N2">
-        <v>1.09343578144728</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.022696551250845</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.055952920158695</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C3">
-        <v>1.078523962729806</v>
+        <v>1.041235064759711</v>
       </c>
       <c r="D3">
-        <v>1.0908538391229</v>
+        <v>1.055716321616677</v>
       </c>
       <c r="E3">
-        <v>1.083365694412771</v>
+        <v>1.051932257514986</v>
       </c>
       <c r="F3">
-        <v>1.096911238989118</v>
+        <v>1.063188662127833</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.091756457235168</v>
+        <v>1.068607899175184</v>
       </c>
       <c r="J3">
-        <v>1.097081031958218</v>
+        <v>1.06066143007442</v>
       </c>
       <c r="K3">
-        <v>1.100442645181477</v>
+        <v>1.065682681577289</v>
       </c>
       <c r="L3">
-        <v>1.093032450218234</v>
+        <v>1.061941129911216</v>
       </c>
       <c r="M3">
-        <v>1.10643793782589</v>
+        <v>1.073072165563972</v>
       </c>
       <c r="N3">
-        <v>1.098639012860551</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.023568432242433</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.057510664252703</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.082846903756941</v>
+        <v>1.043910809872711</v>
       </c>
       <c r="D4">
-        <v>1.094425177026778</v>
+        <v>1.057633878947775</v>
       </c>
       <c r="E4">
-        <v>1.087175374890905</v>
+        <v>1.05411981395863</v>
       </c>
       <c r="F4">
-        <v>1.100784413471816</v>
+        <v>1.065439080291273</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.09375406953434</v>
+        <v>1.069515206234051</v>
       </c>
       <c r="J4">
-        <v>1.100345104577129</v>
+        <v>1.062254272464661</v>
       </c>
       <c r="K4">
-        <v>1.103503414570878</v>
+        <v>1.067083127957732</v>
       </c>
       <c r="L4">
-        <v>1.096324309592619</v>
+        <v>1.063606156300847</v>
       </c>
       <c r="M4">
-        <v>1.109801565836391</v>
+        <v>1.074807008325741</v>
       </c>
       <c r="N4">
-        <v>1.101907720836976</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.024121760555883</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.058501729140406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.084636604834695</v>
+        <v>1.045029314239068</v>
       </c>
       <c r="D5">
-        <v>1.095904088811557</v>
+        <v>1.058438328071239</v>
       </c>
       <c r="E5">
-        <v>1.088752615812153</v>
+        <v>1.055036335076327</v>
       </c>
       <c r="F5">
-        <v>1.10238862607635</v>
+        <v>1.066382009816816</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.094578332536685</v>
+        <v>1.069894134988338</v>
       </c>
       <c r="J5">
-        <v>1.101694968550488</v>
+        <v>1.06292144254921</v>
       </c>
       <c r="K5">
-        <v>1.104769100879986</v>
+        <v>1.067670911654971</v>
       </c>
       <c r="L5">
-        <v>1.097685425957514</v>
+        <v>1.064303871175228</v>
       </c>
       <c r="M5">
-        <v>1.111193079985685</v>
+        <v>1.075534035521998</v>
       </c>
       <c r="N5">
-        <v>1.103259501772009</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.024354430510796</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.058924314954164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.084935521961817</v>
+        <v>1.045222413575527</v>
       </c>
       <c r="D6">
-        <v>1.096151118069676</v>
+        <v>1.058579680215052</v>
       </c>
       <c r="E6">
-        <v>1.08901604807937</v>
+        <v>1.055195636497201</v>
       </c>
       <c r="F6">
-        <v>1.102656603289471</v>
+        <v>1.066546016298941</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.094715838782052</v>
+        <v>1.069961529678928</v>
       </c>
       <c r="J6">
-        <v>1.101920336595407</v>
+        <v>1.063038861926141</v>
       </c>
       <c r="K6">
-        <v>1.104980408743274</v>
+        <v>1.067775861664365</v>
       </c>
       <c r="L6">
-        <v>1.097912658485735</v>
+        <v>1.064426426354281</v>
       </c>
       <c r="M6">
-        <v>1.111425429743449</v>
+        <v>1.075661780937887</v>
       </c>
       <c r="N6">
-        <v>1.103485189865401</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.02439649366853</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.059007046827738</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.082870924668753</v>
+        <v>1.043941838943985</v>
       </c>
       <c r="D7">
-        <v>1.094445025196881</v>
+        <v>1.057662672787225</v>
       </c>
       <c r="E7">
-        <v>1.08719654416084</v>
+        <v>1.054147937664747</v>
       </c>
       <c r="F7">
-        <v>1.100805942046304</v>
+        <v>1.065468302108142</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.093765143508298</v>
+        <v>1.06953135814256</v>
       </c>
       <c r="J7">
-        <v>1.100363227949753</v>
+        <v>1.06227888974545</v>
       </c>
       <c r="K7">
-        <v>1.103520408180121</v>
+        <v>1.067108834317168</v>
       </c>
       <c r="L7">
-        <v>1.096342584991751</v>
+        <v>1.063631184869032</v>
       </c>
       <c r="M7">
-        <v>1.109820246521366</v>
+        <v>1.074833170523392</v>
       </c>
       <c r="N7">
-        <v>1.101925869946868</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.024133383420486</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.058539521604477</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.074002571113805</v>
+        <v>1.038478165683552</v>
       </c>
       <c r="D8">
-        <v>1.087120029852551</v>
+        <v>1.053751780576009</v>
       </c>
       <c r="E8">
-        <v>1.07938137157275</v>
+        <v>1.049686282003825</v>
       </c>
       <c r="F8">
-        <v>1.092862909726602</v>
+        <v>1.060878307718447</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.089657671190163</v>
+        <v>1.067673032469638</v>
       </c>
       <c r="J8">
-        <v>1.093662124945</v>
+        <v>1.059026174128559</v>
       </c>
       <c r="K8">
-        <v>1.097236358174829</v>
+        <v>1.064249737835379</v>
       </c>
       <c r="L8">
-        <v>1.089583618184824</v>
+        <v>1.060232792083416</v>
       </c>
       <c r="M8">
-        <v>1.102916443134985</v>
+        <v>1.071292266340396</v>
       </c>
       <c r="N8">
-        <v>1.095215250607221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.023004332807764</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.056522466655397</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.057371320748037</v>
+        <v>1.028434078300099</v>
       </c>
       <c r="D9">
-        <v>1.07340081063489</v>
+        <v>1.046583970586387</v>
       </c>
       <c r="E9">
-        <v>1.064730433706977</v>
+        <v>1.041524186952476</v>
       </c>
       <c r="F9">
-        <v>1.077995795471075</v>
+        <v>1.052480267728673</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.081865056485477</v>
+        <v>1.064182138815924</v>
       </c>
       <c r="J9">
-        <v>1.081048997708061</v>
+        <v>1.053021220399657</v>
       </c>
       <c r="K9">
-        <v>1.085405560279058</v>
+        <v>1.058963908646568</v>
       </c>
       <c r="L9">
-        <v>1.076853881622637</v>
+        <v>1.053977663893126</v>
       </c>
       <c r="M9">
-        <v>1.089938612083044</v>
+        <v>1.06477563776551</v>
       </c>
       <c r="N9">
-        <v>1.082584211282859</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.020914708770824</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.052782082376359</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.045496720819615</v>
+        <v>1.021454725077576</v>
       </c>
       <c r="D10">
-        <v>1.063622170398884</v>
+        <v>1.041629989566847</v>
       </c>
       <c r="E10">
-        <v>1.054277302333699</v>
+        <v>1.035886402537258</v>
       </c>
       <c r="F10">
-        <v>1.067404893074043</v>
+        <v>1.046678863166163</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.076242738313097</v>
+        <v>1.061716010742451</v>
       </c>
       <c r="J10">
-        <v>1.072014676078647</v>
+        <v>1.04884223433175</v>
       </c>
       <c r="K10">
-        <v>1.076930457912599</v>
+        <v>1.055286192813628</v>
       </c>
       <c r="L10">
-        <v>1.067731155584426</v>
+        <v>1.049636598759469</v>
       </c>
       <c r="M10">
-        <v>1.080655181038342</v>
+        <v>1.060253535095892</v>
       </c>
       <c r="N10">
-        <v>1.073537059880481</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.019462234187252</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.050198271867639</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.040139399634433</v>
+        <v>1.018379374354653</v>
       </c>
       <c r="D11">
-        <v>1.059215639230477</v>
+        <v>1.039461479201104</v>
       </c>
       <c r="E11">
-        <v>1.049564090409758</v>
+        <v>1.033414575665722</v>
       </c>
       <c r="F11">
-        <v>1.062633586041517</v>
+        <v>1.044134993783048</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.073692948893672</v>
+        <v>1.060626499247707</v>
       </c>
       <c r="J11">
-        <v>1.067932681274341</v>
+        <v>1.047007046257871</v>
       </c>
       <c r="K11">
-        <v>1.073101034754337</v>
+        <v>1.053675700150665</v>
       </c>
       <c r="L11">
-        <v>1.063608152850168</v>
+        <v>1.047732703962336</v>
       </c>
       <c r="M11">
-        <v>1.076463678972688</v>
+        <v>1.058269970684674</v>
       </c>
       <c r="N11">
-        <v>1.069449268175341</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.018829300742735</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.049091839001471</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.038114275754787</v>
+        <v>1.017213508444472</v>
       </c>
       <c r="D12">
-        <v>1.057550815275765</v>
+        <v>1.038635950833722</v>
       </c>
       <c r="E12">
-        <v>1.047782964244462</v>
+        <v>1.032476599298195</v>
       </c>
       <c r="F12">
-        <v>1.060831120803507</v>
+        <v>1.043169694224392</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.072727174087763</v>
+        <v>1.060208363328933</v>
       </c>
       <c r="J12">
-        <v>1.066388797321828</v>
+        <v>1.046306814926156</v>
       </c>
       <c r="K12">
-        <v>1.071652678376052</v>
+        <v>1.053058581307988</v>
       </c>
       <c r="L12">
-        <v>1.062048608591198</v>
+        <v>1.047006971762616</v>
       </c>
       <c r="M12">
-        <v>1.074878851914381</v>
+        <v>1.057514069303819</v>
       </c>
       <c r="N12">
-        <v>1.06790319173053</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.018585283624917</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.048655530904057</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.038550311939543</v>
+        <v>1.017461794738719</v>
       </c>
       <c r="D13">
-        <v>1.057909231921329</v>
+        <v>1.038810842006687</v>
       </c>
       <c r="E13">
-        <v>1.048166439443855</v>
+        <v>1.032675853770905</v>
       </c>
       <c r="F13">
-        <v>1.061219162346882</v>
+        <v>1.043374767607315</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.072935204254296</v>
+        <v>1.060296754966469</v>
       </c>
       <c r="J13">
-        <v>1.066721253198983</v>
+        <v>1.046455104907745</v>
       </c>
       <c r="K13">
-        <v>1.071964563313542</v>
+        <v>1.053188768537606</v>
       </c>
       <c r="L13">
-        <v>1.062384443338148</v>
+        <v>1.047160689106669</v>
       </c>
       <c r="M13">
-        <v>1.075220102668444</v>
+        <v>1.057674216454999</v>
       </c>
       <c r="N13">
-        <v>1.068236119733164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.018636453007802</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.0487451268129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.039972737164818</v>
+        <v>1.018282250948352</v>
       </c>
       <c r="D14">
-        <v>1.059078609746635</v>
+        <v>1.039392315371868</v>
       </c>
       <c r="E14">
-        <v>1.049417497230623</v>
+        <v>1.033336222465725</v>
       </c>
       <c r="F14">
-        <v>1.062485224036499</v>
+        <v>1.04405436386471</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.073613506850357</v>
+        <v>1.060591387499225</v>
       </c>
       <c r="J14">
-        <v>1.067805640375129</v>
+        <v>1.046948357519321</v>
       </c>
       <c r="K14">
-        <v>1.072981854387013</v>
+        <v>1.053623762590977</v>
       </c>
       <c r="L14">
-        <v>1.063479826308938</v>
+        <v>1.047671889287637</v>
       </c>
       <c r="M14">
-        <v>1.076333259280026</v>
+        <v>1.05820664424616</v>
       </c>
       <c r="N14">
-        <v>1.06932204686348</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.018808633342242</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.049054070355208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.040844389996515</v>
+        <v>1.018790801373275</v>
       </c>
       <c r="D15">
-        <v>1.059795317559952</v>
+        <v>1.039754598368176</v>
       </c>
       <c r="E15">
-        <v>1.05018420834359</v>
+        <v>1.033746587370378</v>
       </c>
       <c r="F15">
-        <v>1.063261211535367</v>
+        <v>1.044476652161951</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.074028914604142</v>
+        <v>1.060775254007872</v>
       </c>
       <c r="J15">
-        <v>1.06847003644782</v>
+        <v>1.047255736764991</v>
       </c>
       <c r="K15">
-        <v>1.073605141713841</v>
+        <v>1.053895835459389</v>
       </c>
       <c r="L15">
-        <v>1.064150939954391</v>
+        <v>1.047990415440195</v>
       </c>
       <c r="M15">
-        <v>1.077015345096139</v>
+        <v>1.058538324611308</v>
       </c>
       <c r="N15">
-        <v>1.069987386454802</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.018916928071006</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.049252192026348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.045847496195185</v>
+        <v>1.021696875525237</v>
       </c>
       <c r="D16">
-        <v>1.063910808553123</v>
+        <v>1.041815944462738</v>
       </c>
       <c r="E16">
-        <v>1.054585970044642</v>
+        <v>1.036088678915534</v>
       </c>
       <c r="F16">
-        <v>1.067717449706052</v>
+        <v>1.046886917602166</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.076409418781738</v>
+        <v>1.061814076585277</v>
       </c>
       <c r="J16">
-        <v>1.072281827714476</v>
+        <v>1.049001220214169</v>
       </c>
       <c r="K16">
-        <v>1.077181078842706</v>
+        <v>1.055434542059016</v>
       </c>
       <c r="L16">
-        <v>1.068000969771431</v>
+        <v>1.049800685004316</v>
       </c>
       <c r="M16">
-        <v>1.080929564003422</v>
+        <v>1.060423904247999</v>
       </c>
       <c r="N16">
-        <v>1.073804590902275</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.01952564634572</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.050343177485004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.048926232591826</v>
+        <v>1.023499059830217</v>
       </c>
       <c r="D17">
-        <v>1.066444768012684</v>
+        <v>1.043095972185911</v>
       </c>
       <c r="E17">
-        <v>1.057295457089005</v>
+        <v>1.037543327559848</v>
       </c>
       <c r="F17">
-        <v>1.070461529939973</v>
+        <v>1.048383880231285</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.077870874997906</v>
+        <v>1.062455750034995</v>
       </c>
       <c r="J17">
-        <v>1.074625922453438</v>
+        <v>1.05008322134681</v>
       </c>
       <c r="K17">
-        <v>1.079380116888239</v>
+        <v>1.05638833288917</v>
       </c>
       <c r="L17">
-        <v>1.070368307622168</v>
+        <v>1.050923620872009</v>
       </c>
       <c r="M17">
-        <v>1.08333745538573</v>
+        <v>1.061593607205859</v>
       </c>
       <c r="N17">
-        <v>1.076152014524638</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.019902988344589</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.051020051744987</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.050701415811326</v>
+        <v>1.024530846122915</v>
       </c>
       <c r="D18">
-        <v>1.067906315544686</v>
+        <v>1.04382480944682</v>
       </c>
       <c r="E18">
-        <v>1.05885799009323</v>
+        <v>1.038374683117618</v>
       </c>
       <c r="F18">
-        <v>1.072044390733675</v>
+        <v>1.049239418644063</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.078712292847943</v>
+        <v>1.062818370864893</v>
       </c>
       <c r="J18">
-        <v>1.075976937342807</v>
+        <v>1.050698100449572</v>
       </c>
       <c r="K18">
-        <v>1.080647517982301</v>
+        <v>1.056927644297582</v>
       </c>
       <c r="L18">
-        <v>1.071732617887726</v>
+        <v>1.051562339312412</v>
       </c>
       <c r="M18">
-        <v>1.084725524896353</v>
+        <v>1.062259097703789</v>
       </c>
       <c r="N18">
-        <v>1.077504948010113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.020114868351287</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.051389937647533</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.051303294390846</v>
+        <v>1.024890811030887</v>
       </c>
       <c r="D19">
-        <v>1.068401933688905</v>
+        <v>1.044082764684486</v>
       </c>
       <c r="E19">
-        <v>1.059387810189512</v>
+        <v>1.038666596198002</v>
       </c>
       <c r="F19">
-        <v>1.072581167394363</v>
+        <v>1.049539812468102</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.078997363087361</v>
+        <v>1.06294771290031</v>
       </c>
       <c r="J19">
-        <v>1.076434901091891</v>
+        <v>1.050916034732153</v>
       </c>
       <c r="K19">
-        <v>1.081077136285593</v>
+        <v>1.057120910654382</v>
       </c>
       <c r="L19">
-        <v>1.072195071121116</v>
+        <v>1.051788531208288</v>
       </c>
       <c r="M19">
-        <v>1.085196097306037</v>
+        <v>1.062494651581511</v>
       </c>
       <c r="N19">
-        <v>1.07796356212025</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.02019197720211</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.051532844701931</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.04859806236648</v>
+        <v>1.023305515136532</v>
       </c>
       <c r="D20">
-        <v>1.066174616309278</v>
+        <v>1.042958085742095</v>
       </c>
       <c r="E20">
-        <v>1.057006618721985</v>
+        <v>1.037386850278604</v>
       </c>
       <c r="F20">
-        <v>1.070168964480664</v>
+        <v>1.048222853907423</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.077715224186582</v>
+        <v>1.06238663710464</v>
       </c>
       <c r="J20">
-        <v>1.074376119096417</v>
+        <v>1.049966694779402</v>
       </c>
       <c r="K20">
-        <v>1.079145772798481</v>
+        <v>1.056285406610312</v>
       </c>
       <c r="L20">
-        <v>1.070116037720557</v>
+        <v>1.05080267977002</v>
       </c>
       <c r="M20">
-        <v>1.083080823623968</v>
+        <v>1.061467640163906</v>
       </c>
       <c r="N20">
-        <v>1.075901856418197</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.019862150158466</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.05094597277986</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.039554863502126</v>
+        <v>1.018054132615557</v>
       </c>
       <c r="D21">
-        <v>1.058735049759835</v>
+        <v>1.039235491364146</v>
       </c>
       <c r="E21">
-        <v>1.049049952074825</v>
+        <v>1.033155041706446</v>
       </c>
       <c r="F21">
-        <v>1.062113253930703</v>
+        <v>1.043867835356465</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.073414290622652</v>
+        <v>1.060513538251043</v>
       </c>
       <c r="J21">
-        <v>1.067487096699278</v>
+        <v>1.0468159419267</v>
       </c>
       <c r="K21">
-        <v>1.072683020353368</v>
+        <v>1.05350980344801</v>
       </c>
       <c r="L21">
-        <v>1.063158056617151</v>
+        <v>1.04753437685425</v>
       </c>
       <c r="M21">
-        <v>1.076006251273191</v>
+        <v>1.058063196225093</v>
       </c>
       <c r="N21">
-        <v>1.069003050819072</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.018765236693425</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.048986765708654</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.033663893851827</v>
+        <v>1.014666254138589</v>
       </c>
       <c r="D22">
-        <v>1.053894001113939</v>
+        <v>1.036833602858644</v>
       </c>
       <c r="E22">
-        <v>1.043869858458611</v>
+        <v>1.030429398021268</v>
       </c>
       <c r="F22">
-        <v>1.056872279573104</v>
+        <v>1.041062834495019</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.070601320819517</v>
+        <v>1.059291744202771</v>
       </c>
       <c r="J22">
-        <v>1.062994500895143</v>
+        <v>1.044775960327972</v>
       </c>
       <c r="K22">
-        <v>1.068468422852342</v>
+        <v>1.051709067474408</v>
       </c>
       <c r="L22">
-        <v>1.058619616707878</v>
+        <v>1.045421220505001</v>
       </c>
       <c r="M22">
-        <v>1.071395435320237</v>
+        <v>1.055862477203916</v>
       </c>
       <c r="N22">
-        <v>1.064504075013588</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.01805149951554</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.047700361691433</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.03680727556586</v>
+        <v>1.01645326351404</v>
       </c>
       <c r="D23">
-        <v>1.056476616344626</v>
+        <v>1.038094130053434</v>
       </c>
       <c r="E23">
-        <v>1.046633597283773</v>
+        <v>1.031863402374017</v>
       </c>
       <c r="F23">
-        <v>1.059668158421613</v>
+        <v>1.042538696157898</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.072103334880809</v>
+        <v>1.059932165118562</v>
       </c>
       <c r="J23">
-        <v>1.065392156238012</v>
+        <v>1.045846458503099</v>
       </c>
       <c r="K23">
-        <v>1.070717706500424</v>
+        <v>1.05265067294694</v>
       </c>
       <c r="L23">
-        <v>1.061041817047307</v>
+        <v>1.046530178645253</v>
       </c>
       <c r="M23">
-        <v>1.073855916351326</v>
+        <v>1.057017648358022</v>
       </c>
       <c r="N23">
-        <v>1.066905135302058</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.01842264219048</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.048356633155834</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.048746411792642</v>
+        <v>1.023367421049554</v>
       </c>
       <c r="D24">
-        <v>1.066296736967528</v>
+        <v>1.042992585531561</v>
       </c>
       <c r="E24">
-        <v>1.057137187381509</v>
+        <v>1.037432204598816</v>
       </c>
       <c r="F24">
-        <v>1.070301216789175</v>
+        <v>1.048269565923041</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.077785590058281</v>
+        <v>1.062400734407761</v>
       </c>
       <c r="J24">
-        <v>1.074489044560931</v>
+        <v>1.049994713404685</v>
       </c>
       <c r="K24">
-        <v>1.079251709820468</v>
+        <v>1.056304545995207</v>
       </c>
       <c r="L24">
-        <v>1.070230078518496</v>
+        <v>1.050832379976463</v>
       </c>
       <c r="M24">
-        <v>1.083196835033982</v>
+        <v>1.061498913805479</v>
       </c>
       <c r="N24">
-        <v>1.076014942249824</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.019866605101164</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.050932642760635</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.061800722530746</v>
+        <v>1.031105865781505</v>
       </c>
       <c r="D25">
-        <v>1.077052146938171</v>
+        <v>1.048496739687113</v>
       </c>
       <c r="E25">
-        <v>1.0686314359079</v>
+        <v>1.043694563396189</v>
       </c>
       <c r="F25">
-        <v>1.081951582815248</v>
+        <v>1.054713619555936</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.08395062649848</v>
+        <v>1.065126835219411</v>
       </c>
       <c r="J25">
-        <v>1.084413350308136</v>
+        <v>1.054629899932139</v>
       </c>
       <c r="K25">
-        <v>1.088561483079889</v>
+        <v>1.060386121941483</v>
       </c>
       <c r="L25">
-        <v>1.080250197025441</v>
+        <v>1.055650434969482</v>
       </c>
       <c r="M25">
-        <v>1.093398231180636</v>
+        <v>1.066518056524474</v>
       </c>
       <c r="N25">
-        <v>1.085953341649523</v>
+        <v>1.021479830233324</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.053815605791012</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_23/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,93 +439,111 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.037024718941004</v>
+        <v>1.033671205631484</v>
       </c>
       <c r="D2">
-        <v>1.052705018160734</v>
+        <v>1.048575709674758</v>
       </c>
       <c r="E2">
-        <v>1.048498580354994</v>
+        <v>1.045430662837508</v>
       </c>
       <c r="F2">
-        <v>1.059656143130127</v>
+        <v>1.056086136992511</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.06716690905948</v>
+        <v>1.064714418558725</v>
       </c>
       <c r="J2">
-        <v>1.058151736246997</v>
+        <v>1.054889429801413</v>
       </c>
       <c r="K2">
-        <v>1.063475857560016</v>
+        <v>1.059397378396435</v>
       </c>
       <c r="L2">
-        <v>1.059321203234395</v>
+        <v>1.05629138081873</v>
       </c>
       <c r="M2">
-        <v>1.070342529170986</v>
+        <v>1.066815724630745</v>
       </c>
       <c r="N2">
-        <v>1.022696551250845</v>
+        <v>1.021383250692038</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.055952920158695</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.053077787743516</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.027593024752704</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.041235064759711</v>
+        <v>1.037621562569793</v>
       </c>
       <c r="D3">
-        <v>1.055716321616677</v>
+        <v>1.051291369863081</v>
       </c>
       <c r="E3">
-        <v>1.051932257514986</v>
+        <v>1.048618924681572</v>
       </c>
       <c r="F3">
-        <v>1.063188662127833</v>
+        <v>1.059352052134722</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.068607899175184</v>
+        <v>1.065970661169525</v>
       </c>
       <c r="J3">
-        <v>1.06066143007442</v>
+        <v>1.057136642597504</v>
       </c>
       <c r="K3">
-        <v>1.065682681577289</v>
+        <v>1.061307479718405</v>
       </c>
       <c r="L3">
-        <v>1.061941129911216</v>
+        <v>1.058665331693206</v>
       </c>
       <c r="M3">
-        <v>1.073072165563972</v>
+        <v>1.069277918001744</v>
       </c>
       <c r="N3">
-        <v>1.023568432242433</v>
+        <v>1.021997477764402</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.057510664252703</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.054425458052107</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.028011956782778</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.043910809872711</v>
+        <v>1.040133765807718</v>
       </c>
       <c r="D4">
-        <v>1.057633878947775</v>
+        <v>1.053022189777538</v>
       </c>
       <c r="E4">
-        <v>1.05411981395863</v>
+        <v>1.050651962389691</v>
       </c>
       <c r="F4">
-        <v>1.065439080291273</v>
+        <v>1.061434409028365</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.069515206234051</v>
+        <v>1.066761120758944</v>
       </c>
       <c r="J4">
-        <v>1.062254272464661</v>
+        <v>1.058563726126499</v>
       </c>
       <c r="K4">
-        <v>1.067083127957732</v>
+        <v>1.062520180382004</v>
       </c>
       <c r="L4">
-        <v>1.063606156300847</v>
+        <v>1.060175208104857</v>
       </c>
       <c r="M4">
-        <v>1.074807008325741</v>
+        <v>1.070843878556158</v>
       </c>
       <c r="N4">
-        <v>1.024121760555883</v>
+        <v>1.022387672761712</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.058501729140406</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.055283862976318</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.028275715692503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.045029314239068</v>
+        <v>1.041184056429432</v>
       </c>
       <c r="D5">
-        <v>1.058438328071239</v>
+        <v>1.053748726902799</v>
       </c>
       <c r="E5">
-        <v>1.055036335076327</v>
+        <v>1.051503981502685</v>
       </c>
       <c r="F5">
-        <v>1.066382009816816</v>
+        <v>1.062307212700147</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.069894134988338</v>
+        <v>1.067091231118349</v>
       </c>
       <c r="J5">
-        <v>1.06292144254921</v>
+        <v>1.059161631710794</v>
       </c>
       <c r="K5">
-        <v>1.067670911654971</v>
+        <v>1.06302956389049</v>
       </c>
       <c r="L5">
-        <v>1.064303871175228</v>
+        <v>1.060808101630613</v>
       </c>
       <c r="M5">
-        <v>1.075534035521998</v>
+        <v>1.071500378189624</v>
       </c>
       <c r="N5">
-        <v>1.024354430510796</v>
+        <v>1.022551815574216</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.058924314954164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.05565173601869</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.028386677464732</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.045222413575527</v>
+        <v>1.041365119057028</v>
       </c>
       <c r="D6">
-        <v>1.058579680215052</v>
+        <v>1.053876502473303</v>
       </c>
       <c r="E6">
-        <v>1.055195636497201</v>
+        <v>1.051651870371366</v>
       </c>
       <c r="F6">
-        <v>1.066546016298941</v>
+        <v>1.062458903616259</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.069961529678928</v>
+        <v>1.067150080980235</v>
       </c>
       <c r="J6">
-        <v>1.063038861926141</v>
+        <v>1.059266843739482</v>
       </c>
       <c r="K6">
-        <v>1.067775861664365</v>
+        <v>1.063120856456329</v>
       </c>
       <c r="L6">
-        <v>1.064426426354281</v>
+        <v>1.060919193412749</v>
       </c>
       <c r="M6">
-        <v>1.075661780937887</v>
+        <v>1.071615742610553</v>
       </c>
       <c r="N6">
-        <v>1.02439649366853</v>
+        <v>1.022581469015366</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.059007046827738</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.055725690066954</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.028407394424943</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.043941838943985</v>
+        <v>1.04017201639138</v>
       </c>
       <c r="D7">
-        <v>1.057662672787225</v>
+        <v>1.053056007913791</v>
       </c>
       <c r="E7">
-        <v>1.054147937664747</v>
+        <v>1.050686550677222</v>
       </c>
       <c r="F7">
-        <v>1.065468302108142</v>
+        <v>1.061469508540378</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.06953135814256</v>
+        <v>1.066781067184722</v>
       </c>
       <c r="J7">
-        <v>1.06227888974545</v>
+        <v>1.058595360649994</v>
       </c>
       <c r="K7">
-        <v>1.067108834317168</v>
+        <v>1.062550838276316</v>
       </c>
       <c r="L7">
-        <v>1.063631184869032</v>
+        <v>1.060206617565113</v>
       </c>
       <c r="M7">
-        <v>1.074833170523392</v>
+        <v>1.070875840705346</v>
       </c>
       <c r="N7">
-        <v>1.024133383420486</v>
+        <v>1.02242488684119</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.058539521604477</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.055327177003738</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.028285820233341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.038478165683552</v>
+        <v>1.035063918935377</v>
       </c>
       <c r="D8">
-        <v>1.053751780576009</v>
+        <v>1.049542989570095</v>
       </c>
       <c r="E8">
-        <v>1.049686282003825</v>
+        <v>1.046560234388659</v>
       </c>
       <c r="F8">
-        <v>1.060878307718447</v>
+        <v>1.057241182250726</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.067673032469638</v>
+        <v>1.065173055129365</v>
       </c>
       <c r="J8">
-        <v>1.059026174128559</v>
+        <v>1.0557016789275</v>
       </c>
       <c r="K8">
-        <v>1.064249737835379</v>
+        <v>1.060091219454961</v>
       </c>
       <c r="L8">
-        <v>1.060232792083416</v>
+        <v>1.057144396268921</v>
       </c>
       <c r="M8">
-        <v>1.071292266340396</v>
+        <v>1.067697835588062</v>
       </c>
       <c r="N8">
-        <v>1.023004332807764</v>
+        <v>1.021688569349163</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.056522466655397</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.053593033389399</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.027752058339079</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.028434078300099</v>
+        <v>1.02565635488409</v>
       </c>
       <c r="D9">
-        <v>1.046583970586387</v>
+        <v>1.043091771231254</v>
       </c>
       <c r="E9">
-        <v>1.041524186952476</v>
+        <v>1.038997964589551</v>
       </c>
       <c r="F9">
-        <v>1.052480267728673</v>
+        <v>1.049492567935736</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.064182138815924</v>
+        <v>1.062129400236242</v>
       </c>
       <c r="J9">
-        <v>1.053021220399657</v>
+        <v>1.050334552190816</v>
       </c>
       <c r="K9">
-        <v>1.058963908646568</v>
+        <v>1.055522368156862</v>
       </c>
       <c r="L9">
-        <v>1.053977663893126</v>
+        <v>1.051488498034911</v>
       </c>
       <c r="M9">
-        <v>1.06477563776551</v>
+        <v>1.061830638880943</v>
       </c>
       <c r="N9">
-        <v>1.020914708770824</v>
+        <v>1.020230150082934</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.052782082376359</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.050359292341903</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.026735613191327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.021454725077576</v>
+        <v>1.019175503875382</v>
       </c>
       <c r="D10">
-        <v>1.041629989566847</v>
+        <v>1.03867785193934</v>
       </c>
       <c r="E10">
-        <v>1.035886402537258</v>
+        <v>1.033827731064415</v>
       </c>
       <c r="F10">
-        <v>1.046678863166163</v>
+        <v>1.044189996409284</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.061716010742451</v>
+        <v>1.06000253826026</v>
       </c>
       <c r="J10">
-        <v>1.04884223433175</v>
+        <v>1.046648450132339</v>
       </c>
       <c r="K10">
-        <v>1.055286192813628</v>
+        <v>1.052382199587523</v>
       </c>
       <c r="L10">
-        <v>1.049636598759469</v>
+        <v>1.047611944440629</v>
       </c>
       <c r="M10">
-        <v>1.060253535095892</v>
+        <v>1.057804733127068</v>
       </c>
       <c r="N10">
-        <v>1.019462234187252</v>
+        <v>1.019344692684109</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.050198271867639</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.048157239040515</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.026031895072776</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.018379374354653</v>
+        <v>1.016393890434575</v>
       </c>
       <c r="D11">
-        <v>1.039461479201104</v>
+        <v>1.036804568218417</v>
       </c>
       <c r="E11">
-        <v>1.033414575665722</v>
+        <v>1.031630432670862</v>
       </c>
       <c r="F11">
-        <v>1.044134993783048</v>
+        <v>1.041929760556361</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.060626499247707</v>
+        <v>1.059102847518068</v>
       </c>
       <c r="J11">
-        <v>1.047007046257871</v>
+        <v>1.045100217436001</v>
       </c>
       <c r="K11">
-        <v>1.053675700150665</v>
+        <v>1.051064251413502</v>
       </c>
       <c r="L11">
-        <v>1.047732703962336</v>
+        <v>1.045979520156279</v>
       </c>
       <c r="M11">
-        <v>1.058269970684674</v>
+        <v>1.056102015033414</v>
       </c>
       <c r="N11">
-        <v>1.018829300742735</v>
+        <v>1.019162736015146</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.049091839001471</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.047260883259334</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.025746147591463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.017213508444472</v>
+        <v>1.015347314655256</v>
       </c>
       <c r="D12">
-        <v>1.038635950833722</v>
+        <v>1.036096998665469</v>
       </c>
       <c r="E12">
-        <v>1.032476599298195</v>
+        <v>1.030804144839111</v>
       </c>
       <c r="F12">
-        <v>1.043169694224392</v>
+        <v>1.041078913480504</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.060208363328933</v>
+        <v>1.058760898129421</v>
       </c>
       <c r="J12">
-        <v>1.046306814926156</v>
+        <v>1.044516057481975</v>
       </c>
       <c r="K12">
-        <v>1.053058581307988</v>
+        <v>1.050563840574311</v>
       </c>
       <c r="L12">
-        <v>1.047006971762616</v>
+        <v>1.045364060904855</v>
       </c>
       <c r="M12">
-        <v>1.057514069303819</v>
+        <v>1.055459267289473</v>
       </c>
       <c r="N12">
-        <v>1.018585283624917</v>
+        <v>1.019109180281711</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.048655530904057</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.046907094328754</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.025636608735289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.017461794738719</v>
+        <v>1.015570001342921</v>
       </c>
       <c r="D13">
-        <v>1.038810842006687</v>
+        <v>1.036246592413412</v>
       </c>
       <c r="E13">
-        <v>1.032675853770905</v>
+        <v>1.03097945281967</v>
       </c>
       <c r="F13">
-        <v>1.043374767607315</v>
+        <v>1.041259443142336</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.060296754966469</v>
+        <v>1.058832952920542</v>
       </c>
       <c r="J13">
-        <v>1.046455104907745</v>
+        <v>1.044639454111952</v>
       </c>
       <c r="K13">
-        <v>1.053188768537606</v>
+        <v>1.050669004427538</v>
       </c>
       <c r="L13">
-        <v>1.047160689106669</v>
+        <v>1.045494140922344</v>
       </c>
       <c r="M13">
-        <v>1.057674216454999</v>
+        <v>1.055595154874218</v>
       </c>
       <c r="N13">
-        <v>1.018636453007802</v>
+        <v>1.019119093894206</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.0487451268129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.046978753408389</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.025659258107338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.018282250948352</v>
+        <v>1.016306609287355</v>
       </c>
       <c r="D14">
-        <v>1.039392315371868</v>
+        <v>1.036745146214517</v>
       </c>
       <c r="E14">
-        <v>1.033336222465725</v>
+        <v>1.031561303490868</v>
       </c>
       <c r="F14">
-        <v>1.04405436386471</v>
+        <v>1.041858582174256</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.060591387499225</v>
+        <v>1.059074028217632</v>
       </c>
       <c r="J14">
-        <v>1.046948357519321</v>
+        <v>1.045051112501703</v>
       </c>
       <c r="K14">
-        <v>1.053623762590977</v>
+        <v>1.051021955051316</v>
       </c>
       <c r="L14">
-        <v>1.047671889287637</v>
+        <v>1.045927815193583</v>
       </c>
       <c r="M14">
-        <v>1.05820664424616</v>
+        <v>1.056048035462379</v>
       </c>
       <c r="N14">
-        <v>1.018808633342242</v>
+        <v>1.019157609271389</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.049054070355208</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.047229826949274</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.025736729532628</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.018790801373275</v>
+        <v>1.016763906744912</v>
       </c>
       <c r="D15">
-        <v>1.039754598368176</v>
+        <v>1.037056642991664</v>
       </c>
       <c r="E15">
-        <v>1.033746587370378</v>
+        <v>1.03192363701893</v>
       </c>
       <c r="F15">
-        <v>1.044476652161951</v>
+        <v>1.042231628948066</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.060775254007872</v>
+        <v>1.059225099372816</v>
       </c>
       <c r="J15">
-        <v>1.047255736764991</v>
+        <v>1.045308567327315</v>
       </c>
       <c r="K15">
-        <v>1.053895835459389</v>
+        <v>1.051243759622136</v>
       </c>
       <c r="L15">
-        <v>1.047990415440195</v>
+        <v>1.046198898802857</v>
       </c>
       <c r="M15">
-        <v>1.058538324611308</v>
+        <v>1.056331013150736</v>
       </c>
       <c r="N15">
-        <v>1.018916928071006</v>
+        <v>1.019185268996524</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.049252192026348</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.047392980771832</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.025786181155965</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.021696875525237</v>
+        <v>1.019393935654092</v>
       </c>
       <c r="D16">
-        <v>1.041815944462738</v>
+        <v>1.03884054628087</v>
       </c>
       <c r="E16">
-        <v>1.036088678915534</v>
+        <v>1.034007447664857</v>
       </c>
       <c r="F16">
-        <v>1.046886917602166</v>
+        <v>1.044375205060418</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.061814076585277</v>
+        <v>1.060085484824184</v>
       </c>
       <c r="J16">
-        <v>1.049001220214169</v>
+        <v>1.046784276930704</v>
       </c>
       <c r="K16">
-        <v>1.055434542059016</v>
+        <v>1.052507505769108</v>
       </c>
       <c r="L16">
-        <v>1.049800685004316</v>
+        <v>1.047753727305391</v>
       </c>
       <c r="M16">
-        <v>1.060423904247999</v>
+        <v>1.057952487477713</v>
       </c>
       <c r="N16">
-        <v>1.01952564634572</v>
+        <v>1.019374174376303</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.050343177485004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.04828986542939</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.026065103263299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.023499059830217</v>
+        <v>1.021040125715684</v>
       </c>
       <c r="D17">
-        <v>1.043095972185911</v>
+        <v>1.039960246248733</v>
       </c>
       <c r="E17">
-        <v>1.037543327559848</v>
+        <v>1.035316111571231</v>
       </c>
       <c r="F17">
-        <v>1.048383880231285</v>
+        <v>1.045719933123018</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.062455750034995</v>
+        <v>1.060624700424602</v>
       </c>
       <c r="J17">
-        <v>1.05008322134681</v>
+        <v>1.047713101614868</v>
       </c>
       <c r="K17">
-        <v>1.05638833288917</v>
+        <v>1.053302117022914</v>
       </c>
       <c r="L17">
-        <v>1.050923620872009</v>
+        <v>1.048732015336331</v>
       </c>
       <c r="M17">
-        <v>1.061593607205859</v>
+        <v>1.058971155823395</v>
       </c>
       <c r="N17">
-        <v>1.019902988344589</v>
+        <v>1.019530898327111</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.051020051744987</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.048854445559702</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.026241751559423</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.024530846122915</v>
+        <v>1.02198914860325</v>
       </c>
       <c r="D18">
-        <v>1.04382480944682</v>
+        <v>1.040602188658322</v>
       </c>
       <c r="E18">
-        <v>1.038374683117618</v>
+        <v>1.036070069100097</v>
       </c>
       <c r="F18">
-        <v>1.049239418644063</v>
+        <v>1.046493948743048</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.062818370864893</v>
+        <v>1.060932156672777</v>
       </c>
       <c r="J18">
-        <v>1.050698100449572</v>
+        <v>1.048246419613111</v>
       </c>
       <c r="K18">
-        <v>1.056927644297582</v>
+        <v>1.053755040531179</v>
       </c>
       <c r="L18">
-        <v>1.051562339312412</v>
+        <v>1.049293936019587</v>
       </c>
       <c r="M18">
-        <v>1.062259097703789</v>
+        <v>1.059555654590001</v>
       </c>
       <c r="N18">
-        <v>1.020114868351287</v>
+        <v>1.019632908010121</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.051389937647533</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.04916210792184</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.026341137147587</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.024890811030887</v>
+        <v>1.022320759336931</v>
       </c>
       <c r="D19">
-        <v>1.044082764684486</v>
+        <v>1.04083033302583</v>
       </c>
       <c r="E19">
-        <v>1.038666596198002</v>
+        <v>1.036335371948198</v>
       </c>
       <c r="F19">
-        <v>1.049539812468102</v>
+        <v>1.046766350313356</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.06294771290031</v>
+        <v>1.06104257129357</v>
       </c>
       <c r="J19">
-        <v>1.050916034732153</v>
+        <v>1.048436389542273</v>
       </c>
       <c r="K19">
-        <v>1.057120910654382</v>
+        <v>1.053918661048627</v>
       </c>
       <c r="L19">
-        <v>1.051788531208288</v>
+        <v>1.049493716209363</v>
       </c>
       <c r="M19">
-        <v>1.062494651581511</v>
+        <v>1.059763390454728</v>
       </c>
       <c r="N19">
-        <v>1.02019197720211</v>
+        <v>1.019673787434445</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.051532844701931</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.049284681899899</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.026378506736816</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.023305515136532</v>
+        <v>1.020862773694575</v>
       </c>
       <c r="D20">
-        <v>1.042958085742095</v>
+        <v>1.039839136751927</v>
       </c>
       <c r="E20">
-        <v>1.037386850278604</v>
+        <v>1.035174801096806</v>
       </c>
       <c r="F20">
-        <v>1.048222853907423</v>
+        <v>1.045574772866896</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.06238663710464</v>
+        <v>1.060566284486433</v>
       </c>
       <c r="J20">
-        <v>1.049966694779402</v>
+        <v>1.047612501269592</v>
       </c>
       <c r="K20">
-        <v>1.056285406610312</v>
+        <v>1.053215857752721</v>
       </c>
       <c r="L20">
-        <v>1.05080267977002</v>
+        <v>1.048626111750933</v>
       </c>
       <c r="M20">
-        <v>1.061467640163906</v>
+        <v>1.058860939612276</v>
       </c>
       <c r="N20">
-        <v>1.019862150158466</v>
+        <v>1.019512201207217</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.05094597277986</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.048792020074619</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.026222390747984</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.018054132615557</v>
+        <v>1.016125910992729</v>
       </c>
       <c r="D21">
-        <v>1.039235491364146</v>
+        <v>1.036630225602339</v>
       </c>
       <c r="E21">
-        <v>1.033155041706446</v>
+        <v>1.031424361656182</v>
       </c>
       <c r="F21">
-        <v>1.043867835356465</v>
+        <v>1.04171530296291</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.060513538251043</v>
+        <v>1.059024475574676</v>
       </c>
       <c r="J21">
-        <v>1.0468159419267</v>
+        <v>1.044964551257885</v>
       </c>
       <c r="K21">
-        <v>1.05350980344801</v>
+        <v>1.050949341394411</v>
       </c>
       <c r="L21">
-        <v>1.04753437685425</v>
+        <v>1.045833882766435</v>
       </c>
       <c r="M21">
-        <v>1.058063196225093</v>
+        <v>1.055947237667796</v>
       </c>
       <c r="N21">
-        <v>1.018765236693425</v>
+        <v>1.019220794179117</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.048986765708654</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.04719307516618</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.025725951828278</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.014666254138589</v>
+        <v>1.013071576238128</v>
       </c>
       <c r="D22">
-        <v>1.036833602858644</v>
+        <v>1.034560943695671</v>
       </c>
       <c r="E22">
-        <v>1.030429398021268</v>
+        <v>1.029011517674448</v>
       </c>
       <c r="F22">
-        <v>1.041062834495019</v>
+        <v>1.039231778872904</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.059291744202771</v>
+        <v>1.058016563365673</v>
       </c>
       <c r="J22">
-        <v>1.044775960327972</v>
+        <v>1.043248576531218</v>
       </c>
       <c r="K22">
-        <v>1.051709067474408</v>
+        <v>1.049477485730939</v>
       </c>
       <c r="L22">
-        <v>1.045421220505001</v>
+        <v>1.044029356713581</v>
       </c>
       <c r="M22">
-        <v>1.055862477203916</v>
+        <v>1.05406415045436</v>
       </c>
       <c r="N22">
-        <v>1.01805149951554</v>
+        <v>1.019018753571111</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.047700361691433</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.046137889188896</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.025399750188749</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.01645326351404</v>
+        <v>1.014667100086684</v>
       </c>
       <c r="D23">
-        <v>1.038094130053434</v>
+        <v>1.035633756961702</v>
       </c>
       <c r="E23">
-        <v>1.031863402374017</v>
+        <v>1.030266049565019</v>
       </c>
       <c r="F23">
-        <v>1.042538696157898</v>
+        <v>1.040524541476405</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.059932165118562</v>
+        <v>1.058535553161059</v>
       </c>
       <c r="J23">
-        <v>1.045846458503099</v>
+        <v>1.044133429739216</v>
       </c>
       <c r="K23">
-        <v>1.05265067294694</v>
+        <v>1.050233623010874</v>
       </c>
       <c r="L23">
-        <v>1.046530178645253</v>
+        <v>1.044961364919669</v>
       </c>
       <c r="M23">
-        <v>1.057017648358022</v>
+        <v>1.055038549280459</v>
       </c>
       <c r="N23">
-        <v>1.01842264219048</v>
+        <v>1.01907552514821</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.048356633155834</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.046662082000048</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.025563025492016</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.023367421049554</v>
+        <v>1.020920845715722</v>
       </c>
       <c r="D24">
-        <v>1.042992585531561</v>
+        <v>1.039869021506572</v>
       </c>
       <c r="E24">
-        <v>1.037432204598816</v>
+        <v>1.035216793841684</v>
       </c>
       <c r="F24">
-        <v>1.048269565923041</v>
+        <v>1.045617565367432</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.062400734407761</v>
+        <v>1.060577591148437</v>
       </c>
       <c r="J24">
-        <v>1.049994713404685</v>
+        <v>1.047636686595631</v>
       </c>
       <c r="K24">
-        <v>1.056304545995207</v>
+        <v>1.053230388254919</v>
       </c>
       <c r="L24">
-        <v>1.050832379976463</v>
+        <v>1.048652455125572</v>
       </c>
       <c r="M24">
-        <v>1.061498913805479</v>
+        <v>1.058888297745376</v>
       </c>
       <c r="N24">
-        <v>1.019866605101164</v>
+        <v>1.019511197691969</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.050932642760635</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.048772737640126</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.026221991661679</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.031105865781505</v>
+        <v>1.02814320056444</v>
       </c>
       <c r="D25">
-        <v>1.048496739687113</v>
+        <v>1.044802404641815</v>
       </c>
       <c r="E25">
-        <v>1.043694563396189</v>
+        <v>1.040994312683882</v>
       </c>
       <c r="F25">
-        <v>1.054713619555936</v>
+        <v>1.051539892419064</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.065126835219411</v>
+        <v>1.062947022516164</v>
       </c>
       <c r="J25">
-        <v>1.054629899932139</v>
+        <v>1.051759185739932</v>
       </c>
       <c r="K25">
-        <v>1.060386121941483</v>
+        <v>1.056742868999306</v>
       </c>
       <c r="L25">
-        <v>1.055650434969482</v>
+        <v>1.05298791125671</v>
       </c>
       <c r="M25">
-        <v>1.066518056524474</v>
+        <v>1.063387536070181</v>
       </c>
       <c r="N25">
-        <v>1.021479830233324</v>
+        <v>1.020589432789791</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.053815605791012</v>
+        <v>1.051253027335003</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.027011516590036</v>
       </c>
     </row>
   </sheetData>
